--- a/archive/2025-09/ETF_Investment_Portfolio_20250904.xlsx
+++ b/archive/2025-09/ETF_Investment_Portfolio_20250904.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,18 +459,900 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0098</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00981A 主動統一台股增長</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>754000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1560</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>中砂</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>川湖</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>台達電</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1095000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鴻海</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台積電</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.960000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>智邦</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1162000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2354</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>鴻準</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2204000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>華碩</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>852000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金像電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>926000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>美律</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>京元電子</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5977000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯發科</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>496000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>強茂</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>長榮航</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>430000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>玉山金</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14977010</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>兆豐金</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>818000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>大立光</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>奇鋐</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>869000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>台灣大</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>弘塑</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>206000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>順達</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>102000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>優群</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>緯創</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1591000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新日興</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>力旺</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>嘉澤</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>辛耘</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>888000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>健策</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>388000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>291000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>貿聯-KY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1231848</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上品</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>484000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3868000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4966</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>譜瑞-KY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>212000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5347</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>663000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>亞翔</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>振曜</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>旺矽</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>525000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>台燿</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1578000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>台表科</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>保瑞</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>251000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>穎崴</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>緯穎</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>226000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>台灣虎航</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>142000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>富世達</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>414000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>昇陽半導體</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>南電</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>勤誠</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>822000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>高力</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -485,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,21 +1405,952 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0098</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00981A 主動統一台股增長</t>
+          <t>大成</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>754000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1560</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>中砂</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>川湖</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>台達電</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1095000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>鴻海</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>台積電</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1601000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>智邦</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1162000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2354</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>鴻準</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2204000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>華碩</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>852000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金像電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>926000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2439</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>美律</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>京元電子</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5977000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯發科</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>496000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>強茂</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>長榮航</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>430000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>玉山金</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14977010</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>兆豐金</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>818000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>大立光</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>32000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3017</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>奇鋐</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>869000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>台灣大</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3131</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>弘塑</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>206000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>順達</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>102000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>優群</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>緯創</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1591000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3376</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新日興</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>800000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>力旺</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>嘉澤</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>159000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>辛耘</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>888000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>健策</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>388000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>291000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>貿聯-KY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1231848</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4770</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>上品</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>484000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3868000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4966</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>譜瑞-KY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>212000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5347</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>世界</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>663000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6139</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>亞翔</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>6143</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>振曜</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>6223</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>旺矽</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>525000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>6274</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>台燿</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1578000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>台表科</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>保瑞</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>251000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>穎崴</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>6669</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>緯穎</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>226000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6757</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>台灣虎航</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>142000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>富世達</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>414000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>昇陽半導體</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1499000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8046</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>南電</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3399000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>8210</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>勤誠</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>822000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>8996</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>高力</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
